--- a/Paper_Plot/COVID_2020_Project/All donors.xlsx
+++ b/Paper_Plot/COVID_2020_Project/All donors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Files\JHU\Labs\Git_Repos\COVID19_Cross_Reference\Paper_Plot\COVID_2020_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1F1A44-8359-4C17-AD0A-4E70EBF96051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98ECFF-CC2D-4A48-A944-EA64F29ECB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9504" yWindow="1716" windowWidth="14508" windowHeight="11052" xr2:uid="{F78FF7A1-1162-417A-8A99-CFA0F704D59F}"/>
+    <workbookView xWindow="1884" yWindow="228" windowWidth="16128" windowHeight="11136" xr2:uid="{F78FF7A1-1162-417A-8A99-CFA0F704D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,12 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,10 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -404,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4520A42C-E65E-4D8D-888F-7A5AA8FEB8B6}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +518,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>13519</v>
       </c>
       <c r="B8" s="1">
@@ -817,7 +826,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>158</v>
       </c>
       <c r="B30" s="1">
@@ -831,7 +840,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>159</v>
       </c>
       <c r="B31" s="1">
